--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,776 +478,714 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_24</t>
+          <t>model_8_8_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.796768447369019</v>
+        <v>-0.2073650657144932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0408225638502111</v>
+        <v>-4.082543489917939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6816875627970017</v>
+        <v>-14.984180585279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.186889158910865</v>
+        <v>-5.019154632058409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2249174267053604</v>
+        <v>1.336197257041931</v>
       </c>
       <c r="G2" t="n">
-        <v>1.185031890869141</v>
+        <v>6.221911907196045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1287573873996735</v>
+        <v>2.0813148021698</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6879610419273376</v>
+        <v>4.273395538330078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_23</t>
+          <t>model_8_8_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7975774874390136</v>
+        <v>-0.1698322669258032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04555275493541744</v>
+        <v>-3.895463233426291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6809394425775381</v>
+        <v>-14.72983849203819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1903783149493273</v>
+        <v>-4.826427245002725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2240220755338669</v>
+        <v>1.294659614562988</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179187893867493</v>
+        <v>5.992893218994141</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1290600001811981</v>
+        <v>2.048196792602539</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6850088834762573</v>
+        <v>4.136566162109375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_22</t>
+          <t>model_8_8_13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7980481037694241</v>
+        <v>0.1025065566990301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0482945835447306</v>
+        <v>-2.460614027406781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6806496965121751</v>
+        <v>-13.70306739175491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1924317953896341</v>
+        <v>-3.428008817104506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2235012352466583</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G4" t="n">
-        <v>1.175800323486328</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1291772127151489</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6832715272903442</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_21</t>
+          <t>model_8_8_14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8026463782858887</v>
+        <v>0.1025065653031366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07384587190477065</v>
+        <v>-2.460613978717051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6818587384960642</v>
+        <v>-13.70306739175491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2124580991441565</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.218412309885025</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G5" t="n">
-        <v>1.144232630729675</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1286881417036057</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6663275957107544</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_20</t>
+          <t>model_8_8_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8045898417072624</v>
+        <v>0.1025065690947424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08525589352990592</v>
+        <v>-2.46061395809154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6807029873858084</v>
+        <v>-13.70306739175491</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2210141338511713</v>
+        <v>-3.42800875383019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2162614613771439</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G6" t="n">
-        <v>1.130136013031006</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1291556507349014</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6590884327888489</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_19</t>
+          <t>model_8_8_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8061083121759665</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0936634199389198</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6817142165800338</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2277454827831624</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2145809680223465</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G7" t="n">
-        <v>1.119748592376709</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1287465989589691</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6533931493759155</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_18</t>
+          <t>model_8_8_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.809266122365039</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1115192926542344</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6826934843737837</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2417648380360511</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2110861986875534</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G8" t="n">
-        <v>1.097688436508179</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1283504962921143</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6415315270423889</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_17</t>
+          <t>model_8_8_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8147187223667576</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1427478791362325</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6822271105160469</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2658069600937738</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2050517797470093</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G9" t="n">
-        <v>1.059106469154358</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1285391449928284</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6211898922920227</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_16</t>
+          <t>model_8_8_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8189954315152455</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1688187548571178</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6764038022909402</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2846465270349661</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2003187239170074</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G10" t="n">
-        <v>1.026896834373474</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1308946758508682</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6052499413490295</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_15</t>
+          <t>model_8_8_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8205955036176116</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1780743482629216</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6793341925060415</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2924643535882472</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1985479146242142</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G11" t="n">
-        <v>1.015461802482605</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1297093331813812</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5986354351043701</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_0</t>
+          <t>model_8_8_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8206241700811722</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8092738312738945</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5996300713604654</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7624845198091511</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1985161751508713</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.235635831952095</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H12" t="n">
-        <v>0.161949634552002</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2009583413600922</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_14</t>
+          <t>model_8_8_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.821739509396231</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1856808292762856</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D13" t="n">
-        <v>0.677923314856628</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2980255792895883</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1972818374633789</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G13" t="n">
-        <v>1.006064176559448</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1302800327539444</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I13" t="n">
-        <v>0.593930184841156</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_13</t>
+          <t>model_8_8_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8279471535442381</v>
+        <v>0.1025065700689221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2238183885531217</v>
+        <v>-2.460614050695011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6696411384501049</v>
+        <v>-13.70306743913966</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3256467295759725</v>
+        <v>-3.428008772658157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1904118061065674</v>
+        <v>0.9932608008384705</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9589466452598572</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13363017141819</v>
+        <v>1.914499998092651</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5705603361129761</v>
+        <v>3.143736124038696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_1</t>
+          <t>model_8_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8323605660558626</v>
+        <v>0.1025075051839143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5201857598605863</v>
+        <v>-2.460613978717051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6044828296657152</v>
+        <v>-13.70301063018659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5400914645216367</v>
+        <v>-3.428003873682826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1855274587869644</v>
+        <v>0.9932597279548645</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5927945375442505</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1599867045879364</v>
+        <v>1.914492607116699</v>
       </c>
       <c r="I15" t="n">
-        <v>0.389121800661087</v>
+        <v>3.14373254776001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_12</t>
+          <t>model_8_8_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.834552406096103</v>
+        <v>0.1025075075628997</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2654421119402638</v>
+        <v>-2.46061395809154</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6574341524878307</v>
+        <v>-13.70301063018659</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3550742648095409</v>
+        <v>-3.428003854854858</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1831017434597015</v>
+        <v>0.9932597279548645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9075217843055725</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1385678946971893</v>
+        <v>1.914492607116699</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5456621646881104</v>
+        <v>3.14373254776001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_11</t>
+          <t>model_8_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8355912413472695</v>
+        <v>0.1025083877149021</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2723475960448488</v>
+        <v>-2.460614043636691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6542859030246876</v>
+        <v>-13.70295901835734</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3597059373083472</v>
+        <v>-3.427999429047948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.181952029466629</v>
+        <v>0.9932587742805481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8989903926849365</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1398413628339767</v>
+        <v>1.914485931396484</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5417433381080627</v>
+        <v>3.143729448318481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_10</t>
+          <t>model_8_8_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8434046630766787</v>
+        <v>0.1025083877149021</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3213522767894327</v>
+        <v>-2.460614043636691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.644126226451353</v>
+        <v>-13.70295901835734</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3953041763511901</v>
+        <v>-3.427999429047948</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1733048856258392</v>
+        <v>0.9932587742805481</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8384467363357544</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H18" t="n">
-        <v>0.143950954079628</v>
+        <v>1.914485931396484</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5116241574287415</v>
+        <v>3.143729448318481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_9</t>
+          <t>model_8_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8471475459265968</v>
+        <v>0.1025084094421467</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3461583092731597</v>
+        <v>-2.460613949638462</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6346533423939436</v>
+        <v>-13.70295901835734</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4123467900637688</v>
+        <v>-3.427999343241803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1691626310348511</v>
+        <v>0.9932587742805481</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8077996373176575</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1477827280759811</v>
+        <v>1.914485931396484</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4972046613693237</v>
+        <v>3.143729448318481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_8</t>
+          <t>model_8_8_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8481694455021238</v>
+        <v>0.1025092487592552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3537104534667873</v>
+        <v>-2.460614157246062</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6325595949498799</v>
+        <v>-13.70290774984402</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4177154443264501</v>
+        <v>-3.427995107875151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1680316925048828</v>
+        <v>0.9932578206062317</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7984692454338074</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1486296504735947</v>
+        <v>1.91447925567627</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4926623106002808</v>
+        <v>3.143726587295532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_7</t>
+          <t>model_8_8_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.853925017230315</v>
+        <v>0.1025092613047586</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3933077605915286</v>
+        <v>-2.460613949638462</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6128631146839906</v>
+        <v>-13.70290774984402</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4438952952587154</v>
+        <v>-3.427994918360858</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1616619676351547</v>
+        <v>0.9932578206062317</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7495481371879578</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1565968841314316</v>
+        <v>1.91447925567627</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4705119431018829</v>
+        <v>3.143726348876953</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_6</t>
+          <t>model_8_8_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8586561399020154</v>
+        <v>0.1025092613047586</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4229549011676647</v>
+        <v>-2.460613949638462</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6110852894833363</v>
+        <v>-13.70290774984402</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4664159842297952</v>
+        <v>-3.427994918360858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1564259976148605</v>
+        <v>0.9932578206062317</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7129200100898743</v>
+        <v>4.236390113830566</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1573160141706467</v>
+        <v>1.91447925567627</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4514575302600861</v>
+        <v>3.143726348876953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_5</t>
+          <t>model_8_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8599033122091472</v>
+        <v>0.1025112726041397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4417524666319337</v>
+        <v>-2.460614005724636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5888154076478167</v>
+        <v>-13.70278690263405</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4759360281874235</v>
+        <v>-3.427984627449258</v>
       </c>
       <c r="F23" t="n">
-        <v>0.155045747756958</v>
+        <v>0.9932555556297302</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6896963119506836</v>
+        <v>4.236389636993408</v>
       </c>
       <c r="H23" t="n">
-        <v>0.166324183344841</v>
+        <v>1.914463520050049</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4434027671813965</v>
+        <v>3.14371919631958</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_2</t>
+          <t>model_8_8_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8605791833859305</v>
+        <v>0.6176956984198088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5614574630352271</v>
+        <v>0.4800979790590307</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5456019266165513</v>
+        <v>-4.651335032910462</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5587538433158269</v>
+        <v>0.03765304184699003</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1542977541685104</v>
+        <v>0.4230981767177582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5418047308921814</v>
+        <v>0.636449933052063</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1838040351867676</v>
+        <v>0.7358655333518982</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3733318448066711</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_3</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8648402349661363</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.554589799793868</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5562117040859429</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5558279991448625</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1495820283889771</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5502894520759583</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1795123666524887</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3758073747158051</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_4</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8652960386288808</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4935115073206807</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5590388993185088</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5092518526864062</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1490775793790817</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.6257497072219849</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1783687770366669</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4152147471904755</v>
+        <v>0.6832337379455566</v>
       </c>
     </row>
   </sheetData>
